--- a/System_development/magnet_design/B645_Tesla_magnet/B645_BillofMaterials.xlsx
+++ b/System_development/magnet_design/B645_Tesla_magnet/B645_BillofMaterials.xlsx
@@ -1,109 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kahmed\OneDrive - Frontline\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usman\OneDrive - Georgia Southern University\Desktop\NMR\Compact-NMR\System_development\magnet_design\B645_Tesla_magnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40019_{0547473A-420C-4CF8-BF51-89CCF34B03FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED839BBC-5F65-4359-B6D3-40ED72925C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BillofMaterials" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>BILL OF MATERIALS</t>
   </si>
   <si>
-    <t>AMOUNT</t>
+    <t>Designator</t>
   </si>
   <si>
-    <t>DESCRIPTION</t>
+    <t>Component</t>
   </si>
   <si>
-    <t>PART NAME</t>
+    <t>Amount</t>
   </si>
   <si>
-    <t>LOCATION</t>
+    <t>Individual Cost</t>
   </si>
   <si>
-    <t>1x</t>
+    <t>Total Cost</t>
   </si>
   <si>
-    <t>3D Printed Magnet Encasing</t>
+    <t>Vendor 1</t>
   </si>
   <si>
-    <t>Base Magnet Encasing</t>
+    <t>Carbon Steel Rectangular Bar: 1018</t>
   </si>
   <si>
-    <t>ARTS-Laboratory</t>
+    <t>https://www.grainger.com/product/Carbon-Steel-Rectangular-Bar-782V01</t>
   </si>
   <si>
-    <t>2x</t>
-  </si>
-  <si>
-    <t>3D Printed Magnet Aligner</t>
-  </si>
-  <si>
-    <t>Magnet Aligner</t>
-  </si>
-  <si>
-    <t>1018 Carbon Steel 0.5 x 2.0 x 2.52 in</t>
-  </si>
-  <si>
-    <t>2.52 in Steel Bars</t>
-  </si>
-  <si>
-    <t>Bill of Materials</t>
-  </si>
-  <si>
-    <t>1018 Carbon Steel 0.5 x 2.0 x 3.15 in</t>
-  </si>
-  <si>
-    <t>3.15 in Steel Bars</t>
-  </si>
-  <si>
-    <t>1018 Carbon Steel 1.5 x 1.5 x 0.236 in</t>
-  </si>
-  <si>
-    <t>Steel Magnet Caps</t>
-  </si>
-  <si>
-    <t>BX8X88 Magnets</t>
-  </si>
-  <si>
-    <t>Large Magnets</t>
-  </si>
-  <si>
-    <t>K&amp;J Magnetics, Inc. (hhttps://bit.ly/BX8X88Magnets)</t>
-  </si>
-  <si>
-    <t>8x</t>
-  </si>
-  <si>
-    <t>BX844 Magnets</t>
-  </si>
-  <si>
-    <t>Small Magnets</t>
-  </si>
-  <si>
-    <t>K&amp;J Magnetics, Inc. (https://bit.ly/BX844Magnets)</t>
+    <t>782V01 (0.63 in Thick, 3 1/2 in x 6 in)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,8 +546,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -957,128 +928,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="62.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>25.62</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3</f>
+        <v>102.48</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/System_development/magnet_design/B645_Tesla_magnet/B645_BillofMaterials.xlsx
+++ b/System_development/magnet_design/B645_Tesla_magnet/B645_BillofMaterials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usman\OneDrive - Georgia Southern University\Desktop\NMR\Compact-NMR\System_development\magnet_design\B645_Tesla_magnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adowney2\Documents\GitHub\Compact-NMR\System_development\magnet_design\B645_Tesla_magnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED839BBC-5F65-4359-B6D3-40ED72925C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4D0588-CCBC-472F-ABB2-D6264B7206FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BillofMaterials" sheetId="1" r:id="rId1"/>
@@ -59,17 +59,20 @@
     <t>Carbon Steel Rectangular Bar: 1018</t>
   </si>
   <si>
-    <t>https://www.grainger.com/product/Carbon-Steel-Rectangular-Bar-782V01</t>
+    <t>782V01 (0.63 in Thick, 3 1/2 in x 6 in)</t>
   </si>
   <si>
-    <t>782V01 (0.63 in Thick, 3 1/2 in x 6 in)</t>
+    <t>https://www.grainger.com/product/Carbon-Steel-Rectangular-Bar-782V02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +203,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -502,7 +513,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -545,8 +556,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -554,8 +566,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -589,6 +603,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -929,27 +944,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.796875" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="62.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -969,28 +984,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>25.62</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>70</v>
       </c>
       <c r="E3">
         <f>D3*C3</f>
-        <v>102.48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{9387D903-847C-40A9-811F-49EEE546D9AC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/System_development/magnet_design/B645_Tesla_magnet/B645_BillofMaterials.xlsx
+++ b/System_development/magnet_design/B645_Tesla_magnet/B645_BillofMaterials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adowney2\Documents\GitHub\Compact-NMR\System_development\magnet_design\B645_Tesla_magnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usman\OneDrive - Georgia Southern University\Desktop\USC-1stSemester\NMR\Compact-NMR\System_development\magnet_design\B645_Tesla_magnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4D0588-CCBC-472F-ABB2-D6264B7206FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC95E1-8886-4616-A141-8F4A5CC9C31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BillofMaterials" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>BILL OF MATERIALS</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>https://www.grainger.com/product/Carbon-Steel-Rectangular-Bar-782V02</t>
+  </si>
+  <si>
+    <t>0.75 in Thick, 3 1/2 in x 12 in</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/Carbon-Steel-Rectangular-Bar-2HHR7</t>
   </si>
 </sst>
 </file>
@@ -947,24 +953,24 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.796875" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" customWidth="1"/>
-    <col min="6" max="6" width="62.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="62.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -984,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1005,52 +1011,66 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>38.81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" s="4"/>
     </row>
   </sheetData>

--- a/System_development/magnet_design/B645_Tesla_magnet/B645_BillofMaterials.xlsx
+++ b/System_development/magnet_design/B645_Tesla_magnet/B645_BillofMaterials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usman\OneDrive - Georgia Southern University\Desktop\USC-1stSemester\NMR\Compact-NMR\System_development\magnet_design\B645_Tesla_magnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Compact-NMR\System_development\magnet_design\B645_Tesla_magnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC95E1-8886-4616-A141-8F4A5CC9C31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A3DC82-8BE3-465A-B329-E9DA82536A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BillofMaterials" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>BILL OF MATERIALS</t>
   </si>
@@ -56,19 +56,22 @@
     <t>Vendor 1</t>
   </si>
   <si>
-    <t>Carbon Steel Rectangular Bar: 1018</t>
-  </si>
-  <si>
-    <t>782V01 (0.63 in Thick, 3 1/2 in x 6 in)</t>
-  </si>
-  <si>
-    <t>https://www.grainger.com/product/Carbon-Steel-Rectangular-Bar-782V02</t>
-  </si>
-  <si>
-    <t>0.75 in Thick, 3 1/2 in x 12 in</t>
-  </si>
-  <si>
-    <t>https://www.grainger.com/product/Carbon-Steel-Rectangular-Bar-2HHR7</t>
+    <t>Iron Yoke</t>
+  </si>
+  <si>
+    <t>Carbon Steel Rectangular Bar: 1018, 0.75 in Thick, 3 1/2 in x 36 in Nominal Size (WxL), -0.003 in</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/Carbon-Steel-Rectangular-Bar-2HHV2?opr=PLADS&amp;analytics=FM%3APLA&amp;a2c_sku_original=2HHT9&amp;position=3</t>
+  </si>
+  <si>
+    <t>Vendor 2</t>
+  </si>
+  <si>
+    <t>Vendor 3</t>
+  </si>
+  <si>
+    <t>Vendor 4</t>
   </si>
 </sst>
 </file>
@@ -78,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +220,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -564,13 +573,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -950,27 +956,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -989,93 +996,86 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
-        <v>70</v>
-      </c>
-      <c r="E3">
-        <f>D3*C3</f>
-        <v>70</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>105</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3*D3</f>
+        <v>105</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>38.81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{9387D903-847C-40A9-811F-49EEE546D9AC}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{18F59033-E47A-4A2C-B2B3-B9D01C8BE5B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
